--- a/2. Maxent Output/Land Area Calculation.xlsx
+++ b/2. Maxent Output/Land Area Calculation.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/we24270_bristol_ac_uk/Documents/Documents/2. Course (EMDA)/5. TB2/3. GEOGM0013/2. Summative/4. Model Output/2. Attempt 2 (30,000 + 20)/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="290" documentId="8_{36A95CD2-2E51-4B2E-83C5-1617CB0DA613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C27C122-F607-4A90-91E8-248A5091AA04}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="8_{36A95CD2-2E51-4B2E-83C5-1617CB0DA613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA7FB3B4-59A7-4C31-ABD3-4BD64E2AD841}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="18420" yWindow="0" windowWidth="10380" windowHeight="9480" xr2:uid="{8973C092-CFFC-4977-A2B9-D18CAF5628E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8973C092-CFFC-4977-A2B9-D18CAF5628E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Land Area Calculations" sheetId="15" r:id="rId1"/>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -56,24 +51,6 @@
     <t>Europe</t>
   </si>
   <si>
-    <t>TSS Breeding Population - Future</t>
-  </si>
-  <si>
-    <t>TSS Breeding Population - Current</t>
-  </si>
-  <si>
-    <t>TSS Native - Future</t>
-  </si>
-  <si>
-    <t>TSS Native - Current</t>
-  </si>
-  <si>
-    <t>EO Native - Future</t>
-  </si>
-  <si>
-    <t>EO Native - Current</t>
-  </si>
-  <si>
     <t>Scenario</t>
   </si>
   <si>
@@ -96,6 +73,27 @@
   </si>
   <si>
     <t>∆</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>TSS (Breeding) - Future</t>
+  </si>
+  <si>
+    <t>TSS (Breeding) - Current</t>
+  </si>
+  <si>
+    <t>TSS (Native) - Future</t>
+  </si>
+  <si>
+    <t>TSS (Native) - Current</t>
+  </si>
+  <si>
+    <t>EO - Future</t>
+  </si>
+  <si>
+    <t>EO - Current</t>
   </si>
 </sst>
 </file>
@@ -602,11 +600,9 @@
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -634,7 +630,7 @@
     <col min="24" max="24" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -645,11 +641,18 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -660,11 +663,18 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
         <v>1</v>
       </c>
@@ -679,25 +689,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G7" s="12">
         <v>1015351.581</v>
@@ -707,10 +717,10 @@
         <v>0.17405542136712271</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G8" s="12">
         <v>395156.685</v>
@@ -720,10 +730,10 @@
         <v>6.7739258598456226E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G9" s="12">
         <v>215624.61300000001</v>
@@ -733,10 +743,10 @@
         <v>3.6963189475584975E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G10" s="12">
         <v>52363.790999999997</v>
@@ -746,10 +756,10 @@
         <v>8.9763997785954567E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G11" s="12">
         <v>3628341.8409999898</v>
@@ -759,10 +769,10 @@
         <v>0.62198412827331273</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G12" s="12">
         <v>2589441.1909999899</v>
@@ -772,7 +782,7 @@
         <v>0.44389183612733968</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="D13" s="1" t="s">
         <v>5</v>
@@ -787,34 +797,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K19" s="16"/>
       <c r="L19" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K20" s="20" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L20" s="18">
         <f>G12</f>
@@ -829,9 +849,9 @@
         <v>0.40120650494433407</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K21" s="20" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L21" s="18">
         <f>G10</f>
@@ -846,9 +866,9 @@
         <v>3.1178189906074607</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K22" s="20" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L22" s="18">
         <f>G8</f>
@@ -863,7 +883,7 @@
         <v>1.5694910893383973</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K23" s="17"/>
       <c r="L23" s="19"/>
     </row>
